--- a/src/openai/Olbia_text/responses/mini_1/temp_1.0/DET_DETE_345_2025-response.xlsx
+++ b/src/openai/Olbia_text/responses/mini_1/temp_1.0/DET_DETE_345_2025-response.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,13 +453,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Intestazione: Settore, Servizio e Autorità che emana il provvedimento e tipo di provvedimento.</t>
+          <t>Intestazione: Settore, Servizio e Autorità che emana il provvedimento e tipo di provvedimento. Nella determina oltre il settore va indicato il servizio di appartenenza presente nella macrostruttura vigente.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>RISPOSTA: NO
-Note: Nella determina non è specificato il servizio di appartenenza presente nella macrostruttura vigente.</t>
+Note: Non è esplicitato nella determina il servizio di appartenenza presente nella macrostruttura vigente.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,19 +476,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : NO
+Note: L’oggetto della determinazione menziona il codice 15275 anziché 15271, è necessario correggerlo.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indicazione del CIG, del CPV e del CUP (l’indicazione del CUI:  non è richiesta per gli affidamenti diretti ai sensi dell’art. 50 del Dlgs n.36/2023, in quanto consentiti per importi per i quali non è dovuto l’inserimento nei programmi triennali. È richiesta per affidamenti diretti ai sensi dell’art.76 del Dlgs n.36/2023. In caso di consegne complementari ex art.76, comma 4, let. B, o di ripetizione di lavori o servizi analoghi ex art. 76, comma 6, dovrà essere indicato il CUI dell’appalto principale del quale l’affidamento diretto risulta complementare o analogo)</t>
+          <t>Indicazione del CIG e /o del CUP del CUI, del CPV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,12 +523,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Estremi decreto sindacale di nomina del Dirigente.</t>
+          <t>Estremi decreto sindacale di nomina del dirigente.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -539,46 +540,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Conflitto d’interessi</t>
+          <t>Estremi della delega alla firma dell'atto, se persona diversa dal Dirigente.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA: NO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Estremi della delega alla firma dell’atto, se persona diversa dal Dirigente.</t>
+          <t>Estremi atto di nomina del Responsabile del Progetto.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Estremi atto di nomina del Responsabile unico del Progetto, se nominato.</t>
+          <t xml:space="preserve">Conflitto d'interessi </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA: SI
+Nota: La determina menziona che non sussistono situazioni di conflitto di interessi in relazione ai soggetti coinvolti nella procedura, in conformità all'art. 16 del D.lgs. n. 36/2023.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -590,7 +592,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Normativa specifica:  Codice dei contratti pubblici (D.Lgs. n. 36.2023.) ;  L. R. n. 8/2018;  Art. 26 legge n.488/1999  Art. 1, D.L. 6 luglio 2012 n. 95 convertito dalla legge 7 agosto 2012 n. 135 (adesione convenzione Consip e MEPA);  Art. 1, comma 450, della legge 27 Dicembre 2006, n. 296 e ss.mm.ii. (per quanto applicabile);  Art. 26, della legge n. 488/1999 e ss.mm.ii.; DPCM 24 dicembre 2015 ;</t>
+          <t>**Normativa specifica**:
+Codice dei contratti pubblici (D.Lgs. n. 36.2023.);
+L.R. n. 8/2018 e ss.mm.ii. (per quanto applicabile);
+Art. 1, D.L. 6 luglio 2012 n. 95 convertito dalla legge 7 agosto 2012, n. 135 (adesione convenzione Consip);
+Art. 1, comma 450, della legge 27 Dicembre 2006, n. 296 e ss.mm.ii. (per quanto applicabile);
+Art. 26, della legge n. 488/1999 e ss.mm.ii.;
+DPCM 24 dicembre 2015.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -607,12 +615,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Normativa generale:  TUEL;  Legge n. 241/90;  DPR n. 62/2013 Codice comportamento dipendenti pubblici;  L. n. 190/2012;  D.Lgs. n. 33/2013.  Legge n° 136/2010</t>
+          <t>**Normativa generale**:
+TUEL;
+Legge n. 241/90;
+DPR n. 62/2013 Codice comportamento dipendenti pubblici;
+L. n. 190/2012;
+D.Lgs. n. 33/2013;
+Legge n.136/2010.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -624,30 +638,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Norme di principio   Art. 4 del Dlgs n.36/2023. (Criterio interpretativo e applicativo)</t>
+          <t>**Norme di principio**
+Art. 4 del Dlgs n.36/2023. (Criterio interpretativo e applicativo)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>RISPOSTA : NO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Regolamenti dell’ente quali:  - Statuto Comunale;  - Regolamento di contabilità;  - Regolamento dei contratti</t>
+          <t>Regolamenti dell’ente quali:
+- Statuto Comunale;
+- Regolamento di contabilità;
+- Regolamento dei contratti</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>RISPOSTA: NO
-Note: Non è menzionato né lo Statuto Comunale, né il Regolamento di contabilità, né il Regolamento dei contratti nella determina.</t>
+Note: Nella determina non si fa esplicito riferimento allo Statuto Comunale, al Regolamento di contabilità, né al Regolamento dei contratti.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -659,47 +677,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Indicazione dei riferimenti della determina a contrarre “semplificata” adottata</t>
+          <t xml:space="preserve">Termini per la conclusione della procedura </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RISPOSTA: YES</t>
+          <t>RISPOSTA: NO
+Note: Non è presente alcun riferimento ai termini per la conclusione della procedura nella determina.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Indicazione dei riferimenti della determina a contrarre “non semplificata” adottata</t>
+          <t>Fine che con il contratto si intende perseguire</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: La determina non riporta esplicitamente l'indicazione dei riferimenti della determina a contrarre "non semplificata".</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Elementi da approvare con la determina a contrarre nel caso di provvedimento unico</t>
+          <t>Oggetto del contratto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>RISPOSTA: NO 
+Note: La determina non specifica un capitolato d’appalto, quaderno d’oneri o schema di contratto.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -711,7 +730,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Per gli appalti di servizi: DUVRI</t>
+          <t>DUVRI (per i servizi)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -728,13 +747,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Suddivisione in lotti e norme sull’indebito frazionamento</t>
+          <t xml:space="preserve">Costo della mano d’opera; contratto applicabile </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO  
-Note: Nella determina non è presente alcun riferimento alla mancata suddivisione dell'appalto in lotti, né motivazioni correlate al rispetto dell'art. 58 del Dlgs n. 36/2023.</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -746,13 +764,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Validazione (in caso di lavori pubblici)</t>
+          <t>Suddivisione in lotti</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>RISPOSTA : NO
-Note: Non è stata fornita alcuna indicazione riguardo all'avvenuta validazione del progetto posto a base di gara.</t>
+Nota: La determina non menziona la motivazione sulla mancata suddivisione dell'appalto in lotti ai sensi dell’art. 58 del Dlgs n. 36/2023.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,12 +782,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Criteri Ambientali Minimi (CAM)</t>
+          <t>Validazione (in caso di lavori pubblici)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO</t>
+          <t>RISPOSTA : NO
+Note: Nel testo della determina non è menzionata la validazione del progetto posto a base di gara.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,12 +800,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cauzione</t>
+          <t>Criteri Ambientali minimi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO</t>
+          <t>RISPOSTA: NO
+Note: Nella determina non è presente alcun riferimento ai Criteri Ambientali Minimi (CAM) o alla loro applicazione.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,13 +818,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Riferimenti all’obbligo di utilizzo di convenzioni Consip o di soggetti aggregatori</t>
+          <t>Forma del contratto</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI
-Note: Nella determina si fa riferimento alla verifica che non ci siano convenzioni attive di Consip o di altro soggetto aggregatore relative alla fornitura oggetto dell'affidamento, quindi è stato giustificato il ricorso all'affidamento diretto.</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -816,30 +835,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Riferimenti all’obbligo di utilizzo del MEPA o del sistema telematico messo a disposizione dalla centrale regionale di riferimento</t>
+          <t>Clausole del contratto ritenute essenziali</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: Nella determina è specificato che l'importo dell'affidamento è di € 4.026,00, quindi è superiore alla soglia di € 5.000,00, e infatti viene fatto ricorso al MEPA. Tuttavia, non è menzionato un riferimento diretto all'obbligo di utilizzo del MEPA in ottemperanza all'art. 1, comma 449 della legge 296/2006.</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Indicazioni in merito all’istruttoria propedeutica al provvedimento</t>
+          <t>Cauzione provvisoria</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO</t>
+          <t>RISPOSTA: NO
+Note: Non viene richiesta la garanzia definitiva in quanto l’affidamento non lo prevede, secondo quanto indicato nella determina.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -851,13 +870,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Denominazione dell’operatore economico affidatario e indicazione relativa all’acquisizione dell’offerta</t>
+          <t>Modalità di scelta del contraente e ragioni che ne sono alla base (motivare in modo specifico) e criteri di selezione delle offerte</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO  
-Note: La determina non riporta la denominazione dell’operatore economico affidatario e l'indicazione relativa all'acquisizione dell'offerta.</t>
+          <t>RISPOSTA: NO
+Note: La determina non fornisce una motivazione specifica riguardante la modalità di scelta del contraente e i criteri di selezione delle offerte, come richiesto dal punto 24.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -869,13 +888,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Importo di affidamento</t>
+          <t xml:space="preserve">Rotazione degli affidamenti </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: Non ci sono riferimenti specifici all'importo di affidamento e agli eventuali oneri della sicurezza, oneri interferenziali, costo della manodopera, contratto collettivo di lavoro applicato, quinto d’obbligo, revisione dei prezzi, somme a disposizione, supporto al RUP e incentivi nel testo della determinazione.</t>
+          <t>RISPOSTA : NO
+Note: La determina specifica che il principio di rotazione di cui all’art. 49 del d.lgs. 36/2023 può essere derogato per gli affidamenti diretti di importo inferiore a 5.000 euro. Questo implica che non si applica la rotazione per la presente procedura.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -887,47 +906,50 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Indicazione di requisiti previsti dalle disposizioni vigenti per il ricorso all’affidamento diretto.</t>
+          <t>Indicazione dell’importo massimo stimato a base di gara
+Quadro economico dell’intervento  comprensivo di 
+Importo a base di gara, oneri fiscali, costi della sicurezza/interferenziali, revisione dei prezzi, somme a disposizione, supporto al RUP, incentivi (art. 45) modificazioni del contratto preventivabili, proroga, lavori o servizi analoghi, quinto d’obbligo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA: NO
+Nota: Nella determina non è presente un'indicazione chiara dell'importo massimo stimato a base di gara e del quadro economico dell'intervento, come i costi della sicurezza, oneri fiscali, e altre voci richieste. Questo rappresenta una grave omissione.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Motivazione scelta della procedura e del contraente;        Esporre le ragioni della scelta della ditta affidataria;        Esposizione del fatto che legittima il ricorso alla procedura e della valutazione in ordine alla scelta del contraente.</t>
+          <t xml:space="preserve">Riferimenti all’obbligo di utilizzo degli strumenti di acquisto e di negoziazione messi a disposizione da CONSIP e da soggetti aggregatori </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : NO
+Note: La determina non menziona chiaramente il rispetto degli obblighi di utilizzo degli strumenti di acquisto e di negoziazione messi a disposizione da CONSIP e da soggetti aggregatori, come richiesto.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Motivazione scelta della procedura nel caso di ricorso all’art. 76, del Dlgs n.36/2023</t>
+          <t>Riferimenti alla qualificazione del Comune quale Stazione appaltante</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Nota: Non viene fornita una motivazione specifica per il ricorso alla procedura ex art. 76, del D.lgs. n. 36/2023.</t>
+          <t>RISPOSTA : NO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -939,30 +961,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Conformità dell’affidamento ai principi ed alle norme in materia di appalti pubblici</t>
+          <t>Riferimenti alla deliberazione di approvazione del bilancio.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>RISPOSTA: NO
+Note: Non sono presenti riferimenti alla deliberazione di approvazione del bilancio pluriennale vigente nella determina.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dare atto della verifica dei requisiti dell’affidatario</t>
+          <t>Riferimenti deliberazione approvazione PEG e del PIAO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Nota: Non si trova menzione esplicita della verifica dei requisiti dell'affidatario nella determina.</t>
+          <t>RISPOSTA : NO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -974,12 +996,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Verifica sulla regolarità contributiva, DURC o attestazione della stessa o autocertificazione (limitata ai casi previsti dalla legge).</t>
+          <t>Impegno di spesa/prenotazione/copertura finanziaria</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : SI 
+Nota: L'importo da impegnare è di € 4.026,00, assoggettato a IVA al 22% per una parte (aggiornamento Software Auditing PA) mentre la formazione è esente da IVA ai sensi dell’articolo 10, primo comma, n. 20) del D.P.R. 633/72. Non ci sono riferimenti a bilancio e PEG non approvati o impegni di spesa pluriennali nel testo della determina.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -991,31 +1014,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Riferimenti alla deliberazione di approvazione del bilancio.</t>
+          <t>Conformità dei pagamenti con le regole della finanza pubblica vigenti.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: Nella determina non sono stati indicati gli estremi di approvazione del bilancio pluriennale vigente.</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Riferimenti deliberazione approvazione PEG e al PIAO</t>
+          <t>Contributo ANAC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO 
-Note: Nella determina non sono presenti riferimenti alla deliberazione di approvazione del Piano Esecutivo di Gestione (PEG) o al Piano Integrato di Attività e Organizzazione (PIAO).</t>
+          <t>RISPOSTA : NO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1027,12 +1048,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Impegno di spesa/prenotazione</t>
+          <t>Richiamati e/o allegati</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1044,43 +1065,41 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Contributo ANAC</t>
+          <t>Obblighi di pubblicità e trasparenza</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO
-Note: Non è menzionato né assunto un impegno di spesa relativo al pagamento del contributo all'ANAC nella determina.</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Flussi finanziari</t>
+          <t>Pubblicazione atti all’Albo Pretorio Online</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO
-Nota: La determina non contiene riferimenti specifici all'obbligo di tracciabilità dei flussi finanziari ai sensi della legge n° 136/2010 nel contesto indicato.</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Conformità dei pagamenti con le regole della finanza pubblica vigenti</t>
+          <t>Acquisizione del visto di regolarità contabile ai sensi dell’art. 153 del D.Lgs. n. 267/2000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1097,155 +1116,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Indicazione esatta dell’aggiudicatario: nome, cognome, ragione sociale, indirizzo, P.Iva, Cod. Fiscale, sede legale/operativa, altro.</t>
+          <t>Sottoscrizione del Dirigente firmatario dell’atto e dove previsto del R.P. o RUP.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Comunicazione all’aggiudicatario dell’impegno di spesa, la copertura finanziaria, CIG</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>RISPOSTA: SI</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Indicazione specifica della tipologia del contratto</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>RISPOSTA : SI</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Obblighi di pubblicità e trasparenza</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>RISPOSTA: SI</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Attestazione circa il rispetto delle prescrizioni del   PTPCT dell’Ente</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>RISPOSTA: NO
-Note: Non è presente l'attestazione circa il rispetto delle prescrizioni del PTPCT dell'Ente.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Pubblicazione atti all’Albo Pretorio Online.</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>RISPOSTA: SI</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Indicazione termini e autorità a cui ricorrere</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>RISPOSTA: SI</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Sottoscrizione del Dirigente firmatario dell’atto e, dove previsto, del RP o RUP.</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>RISPOSTA: SI</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Presenza del visto di regolarità contabile</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>RISPOSTA: NO
-Note: Non risulta presente il visto di regolarità contabile nella determina.</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>

--- a/src/openai/Olbia_text/responses/mini_1/temp_1.0/DET_DETE_345_2025-response.xlsx
+++ b/src/openai/Olbia_text/responses/mini_1/temp_1.0/DET_DETE_345_2025-response.xlsx
@@ -477,7 +477,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>RISPOSTA : NO
-Note: L’oggetto della determinazione menziona il codice 15275 anziché 15271, è necessario correggerlo.</t>
+Note: L’oggetto della determinazione menziona il codice 15275 anziché 15271, pertanto non risulta corretto.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -579,8 +579,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI
-Nota: La determina menziona che non sussistono situazioni di conflitto di interessi in relazione ai soggetti coinvolti nella procedura, in conformità all'art. 16 del D.lgs. n. 36/2023.</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -664,7 +663,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
+          <t>RISPOSTA : NO
 Note: Nella determina non si fa esplicito riferimento allo Statuto Comunale, al Regolamento di contabilità, né al Regolamento dei contratti.</t>
         </is>
       </c>
@@ -718,7 +717,7 @@
       <c r="B16" t="inlineStr">
         <is>
           <t>RISPOSTA: NO 
-Note: La determina non specifica un capitolato d’appalto, quaderno d’oneri o schema di contratto.</t>
+Note: La determina non specifica la presenza di un capitolato d’appalto, quaderno d’oneri o schema di contratto, come richiesto dall'art. 192 del D.Lgs. n. 267/2000.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -752,7 +751,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>RISPOSTA : NO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -858,7 +857,7 @@
       <c r="B24" t="inlineStr">
         <is>
           <t>RISPOSTA: NO
-Note: Non viene richiesta la garanzia definitiva in quanto l’affidamento non lo prevede, secondo quanto indicato nella determina.</t>
+Note: Non viene richiesta la garanzia definitiva in quanto l'operatore economico ha fornito in precedenza la medesima fornitura in maniera affidabile e con soddisfazione della stazione appaltante.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -876,7 +875,7 @@
       <c r="B25" t="inlineStr">
         <is>
           <t>RISPOSTA: NO
-Note: La determina non fornisce una motivazione specifica riguardante la modalità di scelta del contraente e i criteri di selezione delle offerte, come richiesto dal punto 24.</t>
+Note: La determina non fornisce una motivazione specifica riguardante la modalità di scelta del contraente e i criteri di selezione delle offerte, elementi richiesti dal D.Lgs. n. 267/2000 e dal D.Lgs. n. 36/2023.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -893,8 +892,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO
-Note: La determina specifica che il principio di rotazione di cui all’art. 49 del d.lgs. 36/2023 può essere derogato per gli affidamenti diretti di importo inferiore a 5.000 euro. Questo implica che non si applica la rotazione per la presente procedura.</t>
+          <t>RISPOSTA : NO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -914,7 +912,7 @@
       <c r="B27" t="inlineStr">
         <is>
           <t>RISPOSTA: NO
-Nota: Nella determina non è presente un'indicazione chiara dell'importo massimo stimato a base di gara e del quadro economico dell'intervento, come i costi della sicurezza, oneri fiscali, e altre voci richieste. Questo rappresenta una grave omissione.</t>
+Nota: Nella determina non è presente un'indicazione chiara dell'importo massimo stimato a base di gara e del quadro economico dettagliato dell'intervento.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -984,7 +982,8 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO</t>
+          <t>RISPOSTA : NO  
+Note: Non ci sono riferimenti espliciti alla deliberazione di approvazione del PEG e del PIAO.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1019,7 +1018,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1070,12 +1069,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA: NO
+Note: L'articolo 29 del Codice dei contratti non è stato menzionato nella determina.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/src/openai/Olbia_text/responses/mini_1/temp_1.0/DET_DETE_345_2025-response.xlsx
+++ b/src/openai/Olbia_text/responses/mini_1/temp_1.0/DET_DETE_345_2025-response.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,18 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Intestazione: Settore, Servizio e Autorità che emana il provvedimento e tipo di provvedimento. Nella determina oltre il settore va indicato il servizio di appartenenza presente nella macrostruttura vigente.</t>
+          <t>Intestazione: Settore, Servizio e Autorità che emana il provvedimento e tipo di provvedimento.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: Non è esplicitato nella determina il servizio di appartenenza presente nella macrostruttura vigente.</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
@@ -476,8 +475,8 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO
-Note: L’oggetto della determinazione menziona il codice 15275 anziché 15271, pertanto non risulta corretto.</t>
+          <t>RISPOSTA: NO
+Note: L'oggetto della determinazione non menziona il codice corretto (15275) e la norma attributiva del potere ex art. 50, comma 1, let. a/b del Dlgs n. 36/2023 è citata, ma non in modo chiaro nell'oggetto.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -489,7 +488,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indicazione del CIG e /o del CUP del CUI, del CPV</t>
+          <t>Indicazione del CIG, del CPV e del CUP (l’indicazione del CUI:  non è richiesta per gli affidamenti diretti ai sensi dell’art. 50 del Dlgs n.36/2023, in quanto consentiti per importi per i quali non è dovuto l’inserimento nei programmi triennali. È richiesta per affidamenti diretti ai sensi dell’art.76 del Dlgs n.36/2023. In caso di consegne complementari ex art.76, comma 4, let. B, o di ripetizione di lavori o servizi analoghi ex art. 76, comma 6, dovrà essere indicato il CUI dell’appalto principale del quale l’affidamento diretto risulta complementare o analogo)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,12 +522,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Estremi decreto sindacale di nomina del dirigente.</t>
+          <t>Estremi decreto sindacale di nomina del Dirigente.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -540,41 +539,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Estremi della delega alla firma dell'atto, se persona diversa dal Dirigente.</t>
+          <t>Conflitto d’interessi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Estremi atto di nomina del Responsabile del Progetto.</t>
+          <t>Estremi della delega alla firma dell’atto, se persona diversa dal Dirigente.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conflitto d'interessi </t>
+          <t>Estremi atto di nomina del Responsabile unico del Progetto, se nominato.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -591,13 +590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**Normativa specifica**:
-Codice dei contratti pubblici (D.Lgs. n. 36.2023.);
-L.R. n. 8/2018 e ss.mm.ii. (per quanto applicabile);
-Art. 1, D.L. 6 luglio 2012 n. 95 convertito dalla legge 7 agosto 2012, n. 135 (adesione convenzione Consip);
-Art. 1, comma 450, della legge 27 Dicembre 2006, n. 296 e ss.mm.ii. (per quanto applicabile);
-Art. 26, della legge n. 488/1999 e ss.mm.ii.;
-DPCM 24 dicembre 2015.</t>
+          <t>Normativa specifica:  Codice dei contratti pubblici (D.Lgs. n. 36.2023.) ;  L. R. n. 8/2018;  Art. 26 legge n.488/1999  Art. 1, D.L. 6 luglio 2012 n. 95 convertito dalla legge 7 agosto 2012 n. 135 (adesione convenzione Consip e MEPA);  Art. 1, comma 450, della legge 27 Dicembre 2006, n. 296 e ss.mm.ii. (per quanto applicabile);  Art. 26, della legge n. 488/1999 e ss.mm.ii.; DPCM 24 dicembre 2015 ;</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -614,18 +607,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>**Normativa generale**:
-TUEL;
-Legge n. 241/90;
-DPR n. 62/2013 Codice comportamento dipendenti pubblici;
-L. n. 190/2012;
-D.Lgs. n. 33/2013;
-Legge n.136/2010.</t>
+          <t>Normativa generale:  TUEL;  Legge n. 241/90;  DPR n. 62/2013 Codice comportamento dipendenti pubblici;  L. n. 190/2012;  D.Lgs. n. 33/2013.  Legge n° 136/2010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -637,34 +624,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>**Norme di principio**
-Art. 4 del Dlgs n.36/2023. (Criterio interpretativo e applicativo)</t>
+          <t>Norme di principio   Art. 4 del Dlgs n.36/2023. (Criterio interpretativo e applicativo)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Regolamenti dell’ente quali:
-- Statuto Comunale;
-- Regolamento di contabilità;
-- Regolamento dei contratti</t>
+          <t>Regolamenti dell’ente quali:  - Statuto Comunale;  - Regolamento di contabilità;  - Regolamento dei contratti</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO
-Note: Nella determina non si fa esplicito riferimento allo Statuto Comunale, al Regolamento di contabilità, né al Regolamento dei contratti.</t>
+          <t>RISPOSTA: NO
+Note: Non è menzionato né lo Statuto Comunale, né il Regolamento di contabilità, né il Regolamento dei contratti nella determina.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -676,48 +659,47 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Termini per la conclusione della procedura </t>
+          <t>Indicazione dei riferimenti della determina a contrarre “semplificata” adottata</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: Non è presente alcun riferimento ai termini per la conclusione della procedura nella determina.</t>
+          <t>RISPOSTA: YES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fine che con il contratto si intende perseguire</t>
+          <t>Indicazione dei riferimenti della determina a contrarre “non semplificata” adottata</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : NO
+Note: La determina non riporta esplicitamente i riferimenti di una determina a contrarre "non semplificata" né indica il numero e la data per l'individuazione dell'acquisto dei lavori, servizi e forniture.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oggetto del contratto</t>
+          <t>Elementi da approvare con la determina a contrarre nel caso di provvedimento unico</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO 
-Note: La determina non specifica la presenza di un capitolato d’appalto, quaderno d’oneri o schema di contratto, come richiesto dall'art. 192 del D.Lgs. n. 267/2000.</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -729,12 +711,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DUVRI (per i servizi)</t>
+          <t>Per gli appalti di servizi: DUVRI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA: SI
+Note: È presente l'affermazione che l'elaborazione del Documento Unico dei Rischi da Interferenze (DUVRI) non è necessaria, ai sensi dell'art. 26, comma 3 bis, del D.Lgs. 81/2008.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -746,7 +729,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Costo della mano d’opera; contratto applicabile </t>
+          <t>Suddivisione in lotti e norme sull’indebito frazionamento</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -763,13 +746,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Suddivisione in lotti</t>
+          <t>Validazione (in caso di lavori pubblici)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>RISPOSTA : NO
-Nota: La determina non menziona la motivazione sulla mancata suddivisione dell'appalto in lotti ai sensi dell’art. 58 del Dlgs n. 36/2023.</t>
+Note: Non è stata fornita alcuna indicazione riguardo all'avvenuta validazione del progetto posto a base di gara.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -781,13 +764,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Validazione (in caso di lavori pubblici)</t>
+          <t>Criteri Ambientali Minimi (CAM)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO
-Note: Nel testo della determina non è menzionata la validazione del progetto posto a base di gara.</t>
+          <t>RISPOSTA : NO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -799,13 +781,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Criteri Ambientali minimi</t>
+          <t>Cauzione</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>RISPOSTA: NO
-Note: Nella determina non è presente alcun riferimento ai Criteri Ambientali Minimi (CAM) o alla loro applicazione.</t>
+Note: Nella determina non viene menzionata la necessità di fornire una cauzione definitiva né si fa riferimento all'assenza di richieste di cauzioni.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -817,47 +799,49 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Forma del contratto</t>
+          <t>Riferimenti all’obbligo di utilizzo di convenzioni Consip o di soggetti aggregatori</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>RISPOSTA: NO
+Note: Nella determina si afferma che non ci sono convenzioni attive relative alla fornitura oggetto del presente affidamento, né convenzioni Consip, come indicato nel punto riguardante l'art. 1, comma 512 della L. 28 dicembre 2015 n. 208.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Clausole del contratto ritenute essenziali</t>
+          <t>Riferimenti all’obbligo di utilizzo del MEPA o del sistema telematico messo a disposizione dalla centrale regionale di riferimento</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA: NO
+Note: Nella determina non è specificato che l'affidamento è inferiore a € 5.000,00 e non è menzionata l’obbligatorietà di utilizzo del MEPA o del sistema telematico della centrale regionale, ma si fa riferimento all'uso del MEPA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cauzione provvisoria</t>
+          <t>Indicazioni in merito all’istruttoria propedeutica al provvedimento</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>RISPOSTA: NO
-Note: Non viene richiesta la garanzia definitiva in quanto l'operatore economico ha fornito in precedenza la medesima fornitura in maniera affidabile e con soddisfazione della stazione appaltante.</t>
+Note: La determina non presenta informazioni chiare e dettagliate riguardo l'istruttoria propedeutica al provvedimento di affidamento diretto, né specifica le modalità di indagine di mercato svolte dal RUP.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -869,13 +853,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Modalità di scelta del contraente e ragioni che ne sono alla base (motivare in modo specifico) e criteri di selezione delle offerte</t>
+          <t>Denominazione dell’operatore economico affidatario e indicazione relativa all’acquisizione dell’offerta</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: La determina non fornisce una motivazione specifica riguardante la modalità di scelta del contraente e i criteri di selezione delle offerte, elementi richiesti dal D.Lgs. n. 267/2000 e dal D.Lgs. n. 36/2023.</t>
+          <t>RISPOSTA : NO  
+Note: La determina non riporta specificamente la denominazione dell'operatore economico affidatario e l'indicazione relativa all'acquisizione dell'offerta in forma dettagliata.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -887,12 +871,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rotazione degli affidamenti </t>
+          <t>Importo di affidamento</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO</t>
+          <t>RISPOSTA: NO
+Note: Non ci sono riferimenti specifici all'importo di affidamento e agli eventuali oneri come richiesto nel punto 24.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -904,50 +889,47 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Indicazione dell’importo massimo stimato a base di gara
-Quadro economico dell’intervento  comprensivo di 
-Importo a base di gara, oneri fiscali, costi della sicurezza/interferenziali, revisione dei prezzi, somme a disposizione, supporto al RUP, incentivi (art. 45) modificazioni del contratto preventivabili, proroga, lavori o servizi analoghi, quinto d’obbligo</t>
+          <t>Indicazione di requisiti previsti dalle disposizioni vigenti per il ricorso all’affidamento diretto.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Nota: Nella determina non è presente un'indicazione chiara dell'importo massimo stimato a base di gara e del quadro economico dettagliato dell'intervento.</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riferimenti all’obbligo di utilizzo degli strumenti di acquisto e di negoziazione messi a disposizione da CONSIP e da soggetti aggregatori </t>
+          <t>Motivazione scelta della procedura e del contraente;        Esporre le ragioni della scelta della ditta affidataria;        Esposizione del fatto che legittima il ricorso alla procedura e della valutazione in ordine alla scelta del contraente.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO
-Note: La determina non menziona chiaramente il rispetto degli obblighi di utilizzo degli strumenti di acquisto e di negoziazione messi a disposizione da CONSIP e da soggetti aggregatori, come richiesto.</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Riferimenti alla qualificazione del Comune quale Stazione appaltante</t>
+          <t>Motivazione scelta della procedura nel caso di ricorso all’art. 76, del Dlgs n.36/2023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO</t>
+          <t>RISPOSTA: NO
+Nota: Non viene fornita la motivazione specifica per il ricorso alla procedura ex art. 76, del D.lgs. n. 36/2023.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -959,31 +941,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Riferimenti alla deliberazione di approvazione del bilancio.</t>
+          <t>Conformità dell’affidamento ai principi ed alle norme in materia di appalti pubblici</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: Non sono presenti riferimenti alla deliberazione di approvazione del bilancio pluriennale vigente nella determina.</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Riferimenti deliberazione approvazione PEG e del PIAO</t>
+          <t>Dare atto della verifica dei requisiti dell’affidatario</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO  
-Note: Non ci sono riferimenti espliciti alla deliberazione di approvazione del PEG e del PIAO.</t>
+          <t>RISPOSTA: NO
+Nota: Non si trova menzione esplicita della verifica dei requisiti dell'affidatario nella determina.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -995,13 +976,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Impegno di spesa/prenotazione/copertura finanziaria</t>
+          <t>Verifica sulla regolarità contributiva, DURC o attestazione della stessa o autocertificazione (limitata ai casi previsti dalla legge).</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI 
-Nota: L'importo da impegnare è di € 4.026,00, assoggettato a IVA al 22% per una parte (aggiornamento Software Auditing PA) mentre la formazione è esente da IVA ai sensi dell’articolo 10, primo comma, n. 20) del D.P.R. 633/72. Non ci sono riferimenti a bilancio e PEG non approvati o impegni di spesa pluriennali nel testo della determina.</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1013,29 +993,31 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Conformità dei pagamenti con le regole della finanza pubblica vigenti.</t>
+          <t>Riferimenti alla deliberazione di approvazione del bilancio.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA: NO
+Note: Nella determina non sono stati indicati gli estremi di approvazione del bilancio pluriennale vigente.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Contributo ANAC</t>
+          <t>Riferimenti deliberazione approvazione PEG e al PIAO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RISPOSTA : NO</t>
+          <t>RISPOSTA: NO 
+Note: Nella determina non sono presenti riferimenti alla deliberazione di approvazione del PEG e al PIAO.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1047,12 +1029,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Richiamati e/o allegati</t>
+          <t>Impegno di spesa/prenotazione</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RISPOSTA : SI</t>
+          <t>RISPOSTA: SI</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1064,13 +1046,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Obblighi di pubblicità e trasparenza</t>
+          <t>Contributo ANAC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RISPOSTA: NO
-Note: L'articolo 29 del Codice dei contratti non è stato menzionato nella determina.</t>
+          <t>RISPOSTA : NO
+Note: Non è menzionato né assunto un impegno di spesa relativo al pagamento del contributo all'ANAC nella determina.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1082,24 +1064,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pubblicazione atti all’Albo Pretorio Online</t>
+          <t>Flussi finanziari</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : NO
+Note: La determina non contiene riferimenti specifici all'obbligo di tracciabilità dei flussi finanziari ai sensi della legge n° 136/2010 nel contesto indicato.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Acquisizione del visto di regolarità contabile ai sensi dell’art. 153 del D.Lgs. n. 267/2000</t>
+          <t>Conformità dei pagamenti con le regole della finanza pubblica vigenti</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1116,17 +1099,155 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sottoscrizione del Dirigente firmatario dell’atto e dove previsto del R.P. o RUP.</t>
+          <t>Indicazione esatta dell’aggiudicatario: nome, cognome, ragione sociale, indirizzo, P.Iva, Cod. Fiscale, sede legale/operativa, altro.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RISPOSTA: SI</t>
+          <t>RISPOSTA : SI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Comunicazione all’aggiudicatario dell’impegno di spesa, la copertura finanziaria, CIG</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RISPOSTA: SI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Indicazione specifica della tipologia del contratto</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RISPOSTA : SI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Obblighi di pubblicità e trasparenza</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RISPOSTA: SI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Attestazione circa il rispetto delle prescrizioni del   PTPCT dell’Ente</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RISPOSTA: NO
+Note: Non è presente l'attestazione circa il rispetto delle prescrizioni del PTPCT dell'Ente.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pubblicazione atti all’Albo Pretorio Online.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RISPOSTA: SI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Indicazione termini e autorità a cui ricorrere</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RISPOSTA: SI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sottoscrizione del Dirigente firmatario dell’atto e, dove previsto, del RP o RUP.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RISPOSTA: SI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Presenza del visto di regolarità contabile</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RISPOSTA: NO
+Note: Non è menzionata la trasmissione della determina al servizio finanziario per l’acquisizione del visto di regolarità contabile.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
